--- a/biology/Botanique/Te_Matua_Ngahere/Te_Matua_Ngahere.xlsx
+++ b/biology/Botanique/Te_Matua_Ngahere/Te_Matua_Ngahere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Te Matua Ngahere est un kauri (Agathis australis) géant de la forêt de Waipoua, dans la région de Northland, sur l'île du Nord de la Nouvelle-Zélande.
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom signifie « père de la forêt » en maori. Quoique pas aussi grand que son voisin Tāne Mahuta, Te Matua Ngahere est beaucoup plus large, avec une circonférence de plus de seize mètres. Il n'y a pas de preuves de l'âge de l'arbre, mais celui-ci est estimé à 2 000 ans.
 Il fait partie de ce qui reste de l'ancienne forêt humide subtropicale de la Péninsule de Northland.
-Ses dimensions sont[1] :
-Te Matua Ngahere fut lourdement endommagé par des tempêtes d'hiver en juillet 2007[2].
+Ses dimensions sont :
+Te Matua Ngahere fut lourdement endommagé par des tempêtes d'hiver en juillet 2007.
 </t>
         </is>
       </c>
